--- a/excel_templates/ШАБЛОН Эксель Хоккей Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Хоккей Исход.xlsx
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Создай свою стратегию</t>
   </si>
   <si>
-    <t xml:space="preserve">№ </t>
+    <t xml:space="preserve">№</t>
   </si>
   <si>
     <t xml:space="preserve">ДАТА</t>
@@ -1029,7 +1029,9 @@
   <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U16" activeCellId="0" sqref="U16"/>
+      <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/excel_templates/ШАБЛОН Эксель Хоккей Исход.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Хоккей Исход.xlsx
@@ -115,6 +115,9 @@
     <t xml:space="preserve">ТОТАЛ МАТЧА (х)</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чис</t>
   </si>
   <si>
@@ -143,9 +146,6 @@
   </si>
   <si>
     <t xml:space="preserve">Бол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссылка</t>
   </si>
   <si>
     <t xml:space="preserve">{{ row.get('index') }}</t>
@@ -726,6 +726,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -788,10 +792,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="8" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1028,10 +1028,10 @@
   </sheetPr>
   <dimension ref="A1:AK57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W1"/>
+      <selection pane="bottomLeft" activeCell="AK5" activeCellId="0" sqref="AK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1265,191 +1265,193 @@
         <v>17</v>
       </c>
       <c r="AJ5" s="21"/>
+      <c r="AK5" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="12"/>
-      <c r="C6" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="D6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="24" t="s">
         <v>21</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="16"/>
       <c r="K6" s="17"/>
-      <c r="L6" s="24" t="n">
+      <c r="L6" s="25" t="n">
         <v>30</v>
       </c>
-      <c r="M6" s="25" t="n">
+      <c r="M6" s="26" t="n">
         <v>31</v>
       </c>
-      <c r="N6" s="25" t="n">
+      <c r="N6" s="26" t="n">
         <v>32</v>
       </c>
-      <c r="O6" s="26" t="n">
+      <c r="O6" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="P6" s="26" t="n">
+      <c r="P6" s="27" t="n">
         <v>46</v>
       </c>
-      <c r="Q6" s="26" t="n">
+      <c r="Q6" s="27" t="n">
         <v>47</v>
       </c>
-      <c r="R6" s="27" t="n">
+      <c r="R6" s="28" t="n">
         <v>48</v>
       </c>
-      <c r="S6" s="27" t="n">
+      <c r="S6" s="28" t="n">
         <v>49</v>
       </c>
-      <c r="T6" s="26" t="n">
+      <c r="T6" s="27" t="n">
         <v>50</v>
       </c>
-      <c r="U6" s="26" t="n">
+      <c r="U6" s="27" t="n">
         <v>51</v>
       </c>
-      <c r="V6" s="26" t="n">
+      <c r="V6" s="27" t="n">
         <v>52</v>
       </c>
-      <c r="W6" s="27" t="n">
+      <c r="W6" s="28" t="n">
         <v>53</v>
       </c>
-      <c r="X6" s="27" t="n">
+      <c r="X6" s="28" t="n">
         <v>54</v>
       </c>
-      <c r="Y6" s="27" t="n">
+      <c r="Y6" s="28" t="n">
         <v>55</v>
       </c>
-      <c r="Z6" s="26" t="n">
+      <c r="Z6" s="27" t="n">
         <v>56</v>
       </c>
-      <c r="AA6" s="26" t="n">
+      <c r="AA6" s="27" t="n">
         <v>57</v>
       </c>
-      <c r="AB6" s="26" t="n">
+      <c r="AB6" s="27" t="n">
         <v>58</v>
       </c>
-      <c r="AC6" s="27" t="n">
+      <c r="AC6" s="28" t="n">
         <v>59</v>
       </c>
-      <c r="AD6" s="27" t="n">
+      <c r="AD6" s="28" t="n">
         <v>60</v>
       </c>
-      <c r="AE6" s="27" t="n">
+      <c r="AE6" s="28" t="n">
         <v>61</v>
       </c>
-      <c r="AF6" s="26" t="n">
+      <c r="AF6" s="27" t="n">
         <v>62</v>
       </c>
-      <c r="AG6" s="26" t="n">
+      <c r="AG6" s="27" t="n">
         <v>63</v>
       </c>
-      <c r="AH6" s="26" t="n">
+      <c r="AH6" s="27" t="n">
         <v>64</v>
       </c>
-      <c r="AI6" s="28" t="n">
+      <c r="AI6" s="29" t="n">
         <v>65</v>
       </c>
-      <c r="AJ6" s="29" t="n">
+      <c r="AJ6" s="30" t="n">
         <v>66</v>
       </c>
+      <c r="AK6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="12"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
       <c r="K7" s="17"/>
-      <c r="L7" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" s="31" t="s">
+      <c r="L7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="31" t="s">
+      <c r="M7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" s="32" t="s">
+      <c r="N7" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="Q7" s="32" t="s">
+      <c r="P7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="R7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="33" t="s">
+      <c r="Q7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="S7" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="W7" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" s="36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="T7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="V7" s="34" t="s">
+      <c r="AB7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="W7" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="Y7" s="35" t="s">
+      <c r="AC7" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD7" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="Z7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA7" s="32" t="s">
+      <c r="AF7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AB7" s="32" t="s">
+      <c r="AG7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="AC7" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD7" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF7" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG7" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="AI7" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ7" s="37" t="s">
+      <c r="AH7" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI7" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="AK7" s="38" t="s">
+      <c r="AJ7" s="38" t="s">
         <v>28</v>
       </c>
+      <c r="AK7" s="22"/>
     </row>
     <row r="8" s="39" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="40" t="s">
@@ -1758,7 +1760,7 @@
       <c r="B57" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="L1:U1"/>
     <mergeCell ref="W1:AB1"/>
@@ -1783,6 +1785,7 @@
     <mergeCell ref="AC5:AE5"/>
     <mergeCell ref="AF5:AH5"/>
     <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AK7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
